--- a/required_files/stratified_EA_rates.xlsx
+++ b/required_files/stratified_EA_rates.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvaughan\Dropbox\WIP\Risk Prediction\RiskEA working\required_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvaughan\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\required_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="67140" yWindow="0" windowWidth="21915" windowHeight="11865"/>
+    <workbookView xWindow="69570" yWindow="0" windowWidth="21915" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="EA_incidence" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" s="1">
         <f>$C$6*(1.04^($A2-62))</f>
-        <v>222.48863627312988</v>
+        <v>102.68706289529071</v>
       </c>
       <c r="D2" s="1">
         <v>1.52</v>
@@ -491,7 +491,7 @@
       </c>
       <c r="G2" s="8">
         <f>$C$6*0.5*(1.04^($A2-62))</f>
-        <v>111.24431813656494</v>
+        <v>51.343531447645354</v>
       </c>
       <c r="H2" s="8">
         <v>0.12</v>
@@ -504,7 +504,7 @@
       </c>
       <c r="K2" s="1">
         <f>$C$6*0.65*(1.04^($A2-62))</f>
-        <v>144.61761357753443</v>
+        <v>66.746590881938957</v>
       </c>
       <c r="L2" s="1">
         <v>0.26666666666666666</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C5" si="0">$C$6*(1.04^($A3-62))</f>
-        <v>270.69144507272142</v>
+        <v>124.93451311048682</v>
       </c>
       <c r="D3" s="1">
         <v>2.6252380952380947</v>
@@ -535,7 +535,7 @@
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G11" si="1">$C$6*0.5*(1.04^($A3-62))</f>
-        <v>135.34572253636071</v>
+        <v>62.467256555243409</v>
       </c>
       <c r="H3" s="8">
         <v>0.42857142857142855</v>
@@ -548,7 +548,7 @@
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K11" si="2">$C$6*0.65*(1.04^($A3-62))</f>
-        <v>175.94943929726895</v>
+        <v>81.207433521816441</v>
       </c>
       <c r="L3" s="1">
         <v>0.24975609756097567</v>
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>329.33753230257679</v>
+        <v>152.00193798580466</v>
       </c>
       <c r="D4" s="1">
         <v>5.0999999999999996</v>
@@ -579,7 +579,7 @@
       </c>
       <c r="G4" s="8">
         <f t="shared" si="1"/>
-        <v>164.66876615128839</v>
+        <v>76.00096899290233</v>
       </c>
       <c r="H4" s="8">
         <v>0.61499999999999988</v>
@@ -592,7 +592,7 @@
       </c>
       <c r="K4" s="1">
         <f t="shared" si="2"/>
-        <v>214.0693959966749</v>
+        <v>98.801259690773037</v>
       </c>
       <c r="L4" s="1">
         <v>0.79733333333333334</v>
@@ -610,7 +610,7 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>400.68946454518385</v>
+        <v>184.9335990208541</v>
       </c>
       <c r="D5" s="1">
         <v>10.083916083916083</v>
@@ -623,7 +623,7 @@
       </c>
       <c r="G5" s="8">
         <f t="shared" si="1"/>
-        <v>200.34473227259193</v>
+        <v>92.466799510427052</v>
       </c>
       <c r="H5" s="8">
         <v>0.97777777777777786</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" si="2"/>
-        <v>260.44815195436951</v>
+        <v>120.20683936355516</v>
       </c>
       <c r="L5" s="1">
         <v>1.589240506329114</v>
@@ -653,7 +653,7 @@
         <v>18.260000000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>487.5</v>
+        <v>225</v>
       </c>
       <c r="D6" s="1">
         <v>16.725546218487395</v>
@@ -666,7 +666,7 @@
       </c>
       <c r="G6" s="8">
         <f t="shared" si="1"/>
-        <v>243.75</v>
+        <v>112.5</v>
       </c>
       <c r="H6" s="8">
         <v>1.8263414634146344</v>
@@ -679,7 +679,7 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>316.875</v>
+        <v>146.25</v>
       </c>
       <c r="L6" s="1">
         <v>5.4051908396946562</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" ref="C7:C11" si="3">$C$6*(1.04^($A7-62))</f>
-        <v>593.11828992000017</v>
+        <v>273.74690304000006</v>
       </c>
       <c r="D7" s="1">
         <v>21.984831804281338</v>
@@ -710,7 +710,7 @@
       </c>
       <c r="G7" s="8">
         <f t="shared" si="1"/>
-        <v>296.55914496000008</v>
+        <v>136.87345152000003</v>
       </c>
       <c r="H7" s="8">
         <v>2.177777777777778</v>
@@ -723,7 +723,7 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" si="2"/>
-        <v>385.52688844800014</v>
+        <v>177.93548697600005</v>
       </c>
       <c r="L7" s="1">
         <v>3.828487084870849</v>
@@ -741,7 +741,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="3"/>
-        <v>721.61908889769302</v>
+        <v>333.05496410662755</v>
       </c>
       <c r="D8" s="1">
         <v>25.830153846153856</v>
@@ -754,7 +754,7 @@
       </c>
       <c r="G8" s="8">
         <f t="shared" si="1"/>
-        <v>360.80954444884651</v>
+        <v>166.52748205331378</v>
       </c>
       <c r="H8" s="8">
         <v>3.4237974683544308</v>
@@ -767,7 +767,7 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" si="2"/>
-        <v>469.05240778350043</v>
+        <v>216.48572666930789</v>
       </c>
       <c r="L8" s="1">
         <v>6.3112574850299401</v>
@@ -785,7 +785,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="3"/>
-        <v>877.95995893462191</v>
+        <v>405.21228873905625</v>
       </c>
       <c r="D9" s="1">
         <v>34.957155361050326</v>
@@ -798,7 +798,7 @@
       </c>
       <c r="G9" s="8">
         <f t="shared" si="1"/>
-        <v>438.97997946731095</v>
+        <v>202.60614436952812</v>
       </c>
       <c r="H9" s="8">
         <v>3.6673584905660377</v>
@@ -811,7 +811,7 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" si="2"/>
-        <v>570.67397330750418</v>
+        <v>263.38798768038657</v>
       </c>
       <c r="L9" s="1">
         <v>3.6189578163771716</v>
@@ -829,7 +829,7 @@
       </c>
       <c r="C10" s="6">
         <f t="shared" si="3"/>
-        <v>1068.1725322287928</v>
+        <v>493.00270718251977</v>
       </c>
       <c r="D10" s="1">
         <v>36.08229166666667</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="G10" s="8">
         <f t="shared" si="1"/>
-        <v>534.08626611439638</v>
+        <v>246.50135359125989</v>
       </c>
       <c r="H10" s="8">
         <v>5.6444444444444439</v>
@@ -855,7 +855,7 @@
       </c>
       <c r="K10" s="6">
         <f t="shared" si="2"/>
-        <v>694.3121459487154</v>
+        <v>320.45175966863786</v>
       </c>
       <c r="L10" s="1">
         <v>8.7959349593495944</v>
@@ -873,7 +873,7 @@
       </c>
       <c r="C11" s="6">
         <f t="shared" si="3"/>
-        <v>1299.595211600119</v>
+        <v>599.81317458467026</v>
       </c>
       <c r="D11" s="1">
         <v>37.935207373271894</v>
@@ -886,7 +886,7 @@
       </c>
       <c r="G11" s="8">
         <f t="shared" si="1"/>
-        <v>649.7976058000595</v>
+        <v>299.90658729233513</v>
       </c>
       <c r="H11" s="8">
         <v>7.1562790697674412</v>
@@ -899,7 +899,7 @@
       </c>
       <c r="K11" s="6">
         <f t="shared" si="2"/>
-        <v>844.7368875400773</v>
+        <v>389.87856348003567</v>
       </c>
       <c r="L11" s="1">
         <v>5.0173493975903609</v>

--- a/required_files/stratified_EA_rates.xlsx
+++ b/required_files/stratified_EA_rates.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvaughan\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\required_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\required_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47F2176-AB89-4302-9297-16C94D9360C2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69570" yWindow="0" windowWidth="21915" windowHeight="11865"/>
+    <workbookView xWindow="71805" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EA_incidence" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
@@ -405,11 +406,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +479,7 @@
       </c>
       <c r="C2" s="1">
         <f>$C$6*(1.04^($A2-62))</f>
-        <v>102.68706289529071</v>
+        <v>114.09673655032302</v>
       </c>
       <c r="D2" s="1">
         <v>1.52</v>
@@ -491,7 +492,7 @@
       </c>
       <c r="G2" s="8">
         <f>$C$6*0.5*(1.04^($A2-62))</f>
-        <v>51.343531447645354</v>
+        <v>57.048368275161508</v>
       </c>
       <c r="H2" s="8">
         <v>0.12</v>
@@ -504,7 +505,7 @@
       </c>
       <c r="K2" s="1">
         <f>$C$6*0.65*(1.04^($A2-62))</f>
-        <v>66.746590881938957</v>
+        <v>74.162878757709962</v>
       </c>
       <c r="L2" s="1">
         <v>0.26666666666666666</v>
@@ -522,7 +523,7 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C5" si="0">$C$6*(1.04^($A3-62))</f>
-        <v>124.93451311048682</v>
+        <v>138.81612567831868</v>
       </c>
       <c r="D3" s="1">
         <v>2.6252380952380947</v>
@@ -535,7 +536,7 @@
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G11" si="1">$C$6*0.5*(1.04^($A3-62))</f>
-        <v>62.467256555243409</v>
+        <v>69.408062839159342</v>
       </c>
       <c r="H3" s="8">
         <v>0.42857142857142855</v>
@@ -548,7 +549,7 @@
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K11" si="2">$C$6*0.65*(1.04^($A3-62))</f>
-        <v>81.207433521816441</v>
+        <v>90.230481690907155</v>
       </c>
       <c r="L3" s="1">
         <v>0.24975609756097567</v>
@@ -566,7 +567,7 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>152.00193798580466</v>
+        <v>168.89104220644964</v>
       </c>
       <c r="D4" s="1">
         <v>5.0999999999999996</v>
@@ -579,7 +580,7 @@
       </c>
       <c r="G4" s="8">
         <f t="shared" si="1"/>
-        <v>76.00096899290233</v>
+        <v>84.44552110322482</v>
       </c>
       <c r="H4" s="8">
         <v>0.61499999999999988</v>
@@ -592,7 +593,7 @@
       </c>
       <c r="K4" s="1">
         <f t="shared" si="2"/>
-        <v>98.801259690773037</v>
+        <v>109.77917743419226</v>
       </c>
       <c r="L4" s="1">
         <v>0.79733333333333334</v>
@@ -610,7 +611,7 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>184.9335990208541</v>
+        <v>205.48177668983789</v>
       </c>
       <c r="D5" s="1">
         <v>10.083916083916083</v>
@@ -623,7 +624,7 @@
       </c>
       <c r="G5" s="8">
         <f t="shared" si="1"/>
-        <v>92.466799510427052</v>
+        <v>102.74088834491894</v>
       </c>
       <c r="H5" s="8">
         <v>0.97777777777777786</v>
@@ -636,7 +637,7 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" si="2"/>
-        <v>120.20683936355516</v>
+        <v>133.56315484839462</v>
       </c>
       <c r="L5" s="1">
         <v>1.589240506329114</v>
@@ -653,7 +654,7 @@
         <v>18.260000000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="D6" s="1">
         <v>16.725546218487395</v>
@@ -666,7 +667,7 @@
       </c>
       <c r="G6" s="8">
         <f t="shared" si="1"/>
-        <v>112.5</v>
+        <v>125</v>
       </c>
       <c r="H6" s="8">
         <v>1.8263414634146344</v>
@@ -679,7 +680,7 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>146.25</v>
+        <v>162.5</v>
       </c>
       <c r="L6" s="1">
         <v>5.4051908396946562</v>
@@ -697,7 +698,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" ref="C7:C11" si="3">$C$6*(1.04^($A7-62))</f>
-        <v>273.74690304000006</v>
+        <v>304.16322560000009</v>
       </c>
       <c r="D7" s="1">
         <v>21.984831804281338</v>
@@ -710,7 +711,7 @@
       </c>
       <c r="G7" s="8">
         <f t="shared" si="1"/>
-        <v>136.87345152000003</v>
+        <v>152.08161280000004</v>
       </c>
       <c r="H7" s="8">
         <v>2.177777777777778</v>
@@ -723,7 +724,7 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" si="2"/>
-        <v>177.93548697600005</v>
+        <v>197.70609664000006</v>
       </c>
       <c r="L7" s="1">
         <v>3.828487084870849</v>
@@ -741,7 +742,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="3"/>
-        <v>333.05496410662755</v>
+        <v>370.06107122958616</v>
       </c>
       <c r="D8" s="1">
         <v>25.830153846153856</v>
@@ -754,7 +755,7 @@
       </c>
       <c r="G8" s="8">
         <f t="shared" si="1"/>
-        <v>166.52748205331378</v>
+        <v>185.03053561479308</v>
       </c>
       <c r="H8" s="8">
         <v>3.4237974683544308</v>
@@ -767,7 +768,7 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" si="2"/>
-        <v>216.48572666930789</v>
+        <v>240.539696299231</v>
       </c>
       <c r="L8" s="1">
         <v>6.3112574850299401</v>
@@ -785,7 +786,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="3"/>
-        <v>405.21228873905625</v>
+        <v>450.23587637672921</v>
       </c>
       <c r="D9" s="1">
         <v>34.957155361050326</v>
@@ -798,7 +799,7 @@
       </c>
       <c r="G9" s="8">
         <f t="shared" si="1"/>
-        <v>202.60614436952812</v>
+        <v>225.1179381883646</v>
       </c>
       <c r="H9" s="8">
         <v>3.6673584905660377</v>
@@ -811,7 +812,7 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" si="2"/>
-        <v>263.38798768038657</v>
+        <v>292.65331964487399</v>
       </c>
       <c r="L9" s="1">
         <v>3.6189578163771716</v>
@@ -829,7 +830,7 @@
       </c>
       <c r="C10" s="6">
         <f t="shared" si="3"/>
-        <v>493.00270718251977</v>
+        <v>547.78078575835536</v>
       </c>
       <c r="D10" s="1">
         <v>36.08229166666667</v>
@@ -842,7 +843,7 @@
       </c>
       <c r="G10" s="8">
         <f t="shared" si="1"/>
-        <v>246.50135359125989</v>
+        <v>273.89039287917768</v>
       </c>
       <c r="H10" s="8">
         <v>5.6444444444444439</v>
@@ -855,7 +856,7 @@
       </c>
       <c r="K10" s="6">
         <f t="shared" si="2"/>
-        <v>320.45175966863786</v>
+        <v>356.05751074293096</v>
       </c>
       <c r="L10" s="1">
         <v>8.7959349593495944</v>
@@ -873,7 +874,7 @@
       </c>
       <c r="C11" s="6">
         <f t="shared" si="3"/>
-        <v>599.81317458467026</v>
+        <v>666.4590828718558</v>
       </c>
       <c r="D11" s="1">
         <v>37.935207373271894</v>
@@ -886,7 +887,7 @@
       </c>
       <c r="G11" s="8">
         <f t="shared" si="1"/>
-        <v>299.90658729233513</v>
+        <v>333.2295414359279</v>
       </c>
       <c r="H11" s="8">
         <v>7.1562790697674412</v>
@@ -899,7 +900,7 @@
       </c>
       <c r="K11" s="6">
         <f t="shared" si="2"/>
-        <v>389.87856348003567</v>
+        <v>433.19840386670631</v>
       </c>
       <c r="L11" s="1">
         <v>5.0173493975903609</v>

--- a/required_files/stratified_EA_rates.xlsx
+++ b/required_files/stratified_EA_rates.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\required_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvaughan\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\required_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47F2176-AB89-4302-9297-16C94D9360C2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="71805" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="83955" yWindow="0" windowWidth="21915" windowHeight="11865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EA_incidence" sheetId="1" r:id="rId1"/>
+    <sheet name="Calculation of wted EA rates" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>age</t>
   </si>
@@ -64,12 +64,30 @@
   </si>
   <si>
     <t>ACM_bm</t>
+  </si>
+  <si>
+    <t>Calculation of weighted incidence of EA in BE</t>
+  </si>
+  <si>
+    <t>incidence</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>NDBE</t>
+  </si>
+  <si>
+    <t>LGD</t>
+  </si>
+  <si>
+    <t>HGD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
@@ -406,10 +424,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -479,7 +497,7 @@
       </c>
       <c r="C2" s="1">
         <f>$C$6*(1.04^($A2-62))</f>
-        <v>114.09673655032302</v>
+        <v>170.23233093308193</v>
       </c>
       <c r="D2" s="1">
         <v>1.52</v>
@@ -492,7 +510,7 @@
       </c>
       <c r="G2" s="8">
         <f>$C$6*0.5*(1.04^($A2-62))</f>
-        <v>57.048368275161508</v>
+        <v>85.116165466540963</v>
       </c>
       <c r="H2" s="8">
         <v>0.12</v>
@@ -505,7 +523,7 @@
       </c>
       <c r="K2" s="1">
         <f>$C$6*0.65*(1.04^($A2-62))</f>
-        <v>74.162878757709962</v>
+        <v>110.65101510650327</v>
       </c>
       <c r="L2" s="1">
         <v>0.26666666666666666</v>
@@ -523,7 +541,7 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C5" si="0">$C$6*(1.04^($A3-62))</f>
-        <v>138.81612567831868</v>
+        <v>207.1136595120515</v>
       </c>
       <c r="D3" s="1">
         <v>2.6252380952380947</v>
@@ -536,7 +554,7 @@
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G11" si="1">$C$6*0.5*(1.04^($A3-62))</f>
-        <v>69.408062839159342</v>
+        <v>103.55682975602575</v>
       </c>
       <c r="H3" s="8">
         <v>0.42857142857142855</v>
@@ -549,7 +567,7 @@
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K11" si="2">$C$6*0.65*(1.04^($A3-62))</f>
-        <v>90.230481690907155</v>
+        <v>134.62387868283346</v>
       </c>
       <c r="L3" s="1">
         <v>0.24975609756097567</v>
@@ -567,7 +585,7 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>168.89104220644964</v>
+        <v>251.98543497202283</v>
       </c>
       <c r="D4" s="1">
         <v>5.0999999999999996</v>
@@ -580,7 +598,7 @@
       </c>
       <c r="G4" s="8">
         <f t="shared" si="1"/>
-        <v>84.44552110322482</v>
+        <v>125.99271748601141</v>
       </c>
       <c r="H4" s="8">
         <v>0.61499999999999988</v>
@@ -593,7 +611,7 @@
       </c>
       <c r="K4" s="1">
         <f t="shared" si="2"/>
-        <v>109.77917743419226</v>
+        <v>163.79053273181486</v>
       </c>
       <c r="L4" s="1">
         <v>0.79733333333333334</v>
@@ -611,7 +629,7 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>205.48177668983789</v>
+        <v>306.57881082123811</v>
       </c>
       <c r="D5" s="1">
         <v>10.083916083916083</v>
@@ -624,7 +642,7 @@
       </c>
       <c r="G5" s="8">
         <f t="shared" si="1"/>
-        <v>102.74088834491894</v>
+        <v>153.28940541061905</v>
       </c>
       <c r="H5" s="8">
         <v>0.97777777777777786</v>
@@ -637,7 +655,7 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" si="2"/>
-        <v>133.56315484839462</v>
+        <v>199.27622703380479</v>
       </c>
       <c r="L5" s="1">
         <v>1.589240506329114</v>
@@ -654,7 +672,7 @@
         <v>18.260000000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>250</v>
+        <v>373</v>
       </c>
       <c r="D6" s="1">
         <v>16.725546218487395</v>
@@ -667,7 +685,7 @@
       </c>
       <c r="G6" s="8">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>186.5</v>
       </c>
       <c r="H6" s="8">
         <v>1.8263414634146344</v>
@@ -680,7 +698,7 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>162.5</v>
+        <v>242.45000000000002</v>
       </c>
       <c r="L6" s="1">
         <v>5.4051908396946562</v>
@@ -698,7 +716,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" ref="C7:C11" si="3">$C$6*(1.04^($A7-62))</f>
-        <v>304.16322560000009</v>
+        <v>453.81153259520011</v>
       </c>
       <c r="D7" s="1">
         <v>21.984831804281338</v>
@@ -711,7 +729,7 @@
       </c>
       <c r="G7" s="8">
         <f t="shared" si="1"/>
-        <v>152.08161280000004</v>
+        <v>226.90576629760005</v>
       </c>
       <c r="H7" s="8">
         <v>2.177777777777778</v>
@@ -724,7 +742,7 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" si="2"/>
-        <v>197.70609664000006</v>
+        <v>294.9774961868801</v>
       </c>
       <c r="L7" s="1">
         <v>3.828487084870849</v>
@@ -742,7 +760,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="3"/>
-        <v>370.06107122958616</v>
+        <v>552.13111827454259</v>
       </c>
       <c r="D8" s="1">
         <v>25.830153846153856</v>
@@ -755,7 +773,7 @@
       </c>
       <c r="G8" s="8">
         <f t="shared" si="1"/>
-        <v>185.03053561479308</v>
+        <v>276.06555913727129</v>
       </c>
       <c r="H8" s="8">
         <v>3.4237974683544308</v>
@@ -768,7 +786,7 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" si="2"/>
-        <v>240.539696299231</v>
+        <v>358.88522687845267</v>
       </c>
       <c r="L8" s="1">
         <v>6.3112574850299401</v>
@@ -786,7 +804,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="3"/>
-        <v>450.23587637672921</v>
+        <v>671.75192755407988</v>
       </c>
       <c r="D9" s="1">
         <v>34.957155361050326</v>
@@ -799,7 +817,7 @@
       </c>
       <c r="G9" s="8">
         <f t="shared" si="1"/>
-        <v>225.1179381883646</v>
+        <v>335.87596377703994</v>
       </c>
       <c r="H9" s="8">
         <v>3.6673584905660377</v>
@@ -812,7 +830,7 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" si="2"/>
-        <v>292.65331964487399</v>
+        <v>436.63875291015199</v>
       </c>
       <c r="L9" s="1">
         <v>3.6189578163771716</v>
@@ -830,7 +848,7 @@
       </c>
       <c r="C10" s="6">
         <f t="shared" si="3"/>
-        <v>547.78078575835536</v>
+        <v>817.28893235146609</v>
       </c>
       <c r="D10" s="1">
         <v>36.08229166666667</v>
@@ -843,7 +861,7 @@
       </c>
       <c r="G10" s="8">
         <f t="shared" si="1"/>
-        <v>273.89039287917768</v>
+        <v>408.64446617573304</v>
       </c>
       <c r="H10" s="8">
         <v>5.6444444444444439</v>
@@ -856,7 +874,7 @@
       </c>
       <c r="K10" s="6">
         <f t="shared" si="2"/>
-        <v>356.05751074293096</v>
+        <v>531.23780602845306</v>
       </c>
       <c r="L10" s="1">
         <v>8.7959349593495944</v>
@@ -874,7 +892,7 @@
       </c>
       <c r="C11" s="6">
         <f t="shared" si="3"/>
-        <v>666.4590828718558</v>
+        <v>994.35695164480887</v>
       </c>
       <c r="D11" s="1">
         <v>37.935207373271894</v>
@@ -887,7 +905,7 @@
       </c>
       <c r="G11" s="8">
         <f t="shared" si="1"/>
-        <v>333.2295414359279</v>
+        <v>497.17847582240444</v>
       </c>
       <c r="H11" s="8">
         <v>7.1562790697674412</v>
@@ -900,7 +918,7 @@
       </c>
       <c r="K11" s="6">
         <f t="shared" si="2"/>
-        <v>433.19840386670631</v>
+        <v>646.33201856912581</v>
       </c>
       <c r="L11" s="1">
         <v>5.0173493975903609</v>
@@ -961,4 +979,85 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.86</v>
+      </c>
+      <c r="D4">
+        <f>B4*C4</f>
+        <v>0.17200000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B4*3.68</f>
+        <v>0.7360000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.11</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="0">B5*C5</f>
+        <v>8.0960000000000018E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B4*20</f>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.03</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>SUM(D4:D6)</f>
+        <v>0.37296000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>